--- a/results/fitting_evaluation_interval_size_0.1_K100_N100_Nelder-Mead.xlsx
+++ b/results/fitting_evaluation_interval_size_0.1_K100_N100_Nelder-Mead.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\workspace\amistat2019\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{378FD4F3-258D-4AFA-902B-6411C8911DB5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE57826-D35B-43E1-B457-1E41868955BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2113" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="75">
   <si>
     <t>model_type</t>
   </si>
@@ -251,6 +251,12 @@
   <si>
     <t>converged total</t>
   </si>
+  <si>
+    <t>criteria correct</t>
+  </si>
+  <si>
+    <t>model correct</t>
+  </si>
 </sst>
 </file>
 
@@ -320,13 +326,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,14 +675,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:BI1030"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="I7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="BE7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,7 +755,14 @@
       </c>
       <c r="C1" s="2">
         <f>SUBTOTAL(2,AM$7:AM$1030)/SUBTOTAL(2,L$7:L$1030)</f>
-        <v>0.984375</v>
+        <v>0.96875</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="5">
+        <f>SUBTOTAL(1,AS7:BH1030)</f>
+        <v>0.8037109375</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
@@ -754,26 +771,65 @@
       </c>
       <c r="C2" s="2">
         <f>SUBTOTAL(2,U$7:U$1030)/SUBTOTAL(2,I$7:I$1030)</f>
-        <v>0.89453125</v>
+        <v>0.7890625</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="6">
+        <f>BI5</f>
+        <v>0.77390625000000002</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="2" t="e">
         <f>SUBTOTAL(2,AA$7:AA$1030)/SUBTOTAL(2,J$7:J$1030)</f>
-        <v>1</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4"/>
+      <c r="BH3" s="4"/>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="2" t="e">
         <f>SUBTOTAL(2,AG$7:AG$1030)/SUBTOTAL(2,K$7:K$1030)</f>
-        <v>1</v>
-      </c>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="4"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="4"/>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -781,75 +837,75 @@
       </c>
       <c r="C5" s="2">
         <f>(SUBTOTAL(2,AM$7:AM$1030)+SUBTOTAL(2,U$7:U$1030)+SUBTOTAL(2,AA$7:AA$1030)+SUBTOTAL(2,AG$7:AG$1030))/(SUBTOTAL(2,I$7:I$1030)+SUBTOTAL(2,L$7:L$1030)+SUBTOTAL(2,J$7:J$1030)+SUBTOTAL(2,K$7:K$1030))</f>
-        <v>0.97265625</v>
+        <v>0.87890625</v>
       </c>
       <c r="AS5" s="2">
         <f>IFERROR(SUBTOTAL(1,AS7:AS1030),"")</f>
-        <v>0.66796875</v>
+        <v>0.4375</v>
       </c>
       <c r="AT5" s="2">
         <f t="shared" ref="AT5:BI5" si="0">IFERROR(SUBTOTAL(1,AT7:AT1030),"")</f>
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AU5" s="2">
         <f t="shared" si="0"/>
-        <v>0.859375</v>
+        <v>0.71875</v>
       </c>
       <c r="AV5" s="2">
         <f t="shared" si="0"/>
-        <v>0.87890625</v>
-      </c>
-      <c r="AW5" s="2">
+        <v>0.7578125</v>
+      </c>
+      <c r="AW5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.7265625</v>
-      </c>
-      <c r="AX5" s="2">
+        <v/>
+      </c>
+      <c r="AX5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="AY5" s="2">
+        <v/>
+      </c>
+      <c r="AY5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.91796875</v>
-      </c>
-      <c r="AZ5" s="2">
+        <v/>
+      </c>
+      <c r="AZ5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.91796875</v>
-      </c>
-      <c r="BA5" s="2">
+        <v/>
+      </c>
+      <c r="BA5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.5703125</v>
-      </c>
-      <c r="BB5" s="2">
+        <v/>
+      </c>
+      <c r="BB5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.95703125</v>
-      </c>
-      <c r="BC5" s="2">
+        <v/>
+      </c>
+      <c r="BC5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.90625</v>
-      </c>
-      <c r="BD5" s="2">
+        <v/>
+      </c>
+      <c r="BD5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="BE5" s="2">
+        <f>IFERROR(SUBTOTAL(1,BE7:BE1030),"")</f>
+        <v>0.8671875</v>
+      </c>
+      <c r="BF5" s="2">
         <f t="shared" si="0"/>
         <v>0.9609375</v>
       </c>
-      <c r="BE5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.845703125</v>
-      </c>
-      <c r="BF5" s="2">
-        <f t="shared" si="0"/>
-        <v>0.98046875</v>
-      </c>
       <c r="BG5" s="2">
         <f t="shared" si="0"/>
-        <v>0.984375</v>
+        <v>0.96875</v>
       </c>
       <c r="BH5" s="2">
         <f t="shared" si="0"/>
-        <v>0.984375</v>
+        <v>0.96875</v>
       </c>
       <c r="BI5" s="2">
         <f t="shared" si="0"/>
-        <v>0.85019531250000002</v>
+        <v>0.77390625000000002</v>
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
@@ -1034,7 +1090,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1120,7 +1176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1179,7 +1235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1277,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1491,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1517,7 +1573,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1636,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1698,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1838,7 +1894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1864,7 +1920,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -1983,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -2045,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -2185,7 +2241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -2211,7 +2267,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -2270,7 +2326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -2329,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -2639,7 +2695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -2665,7 +2721,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -2766,7 +2822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -2828,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -2968,7 +3024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -2994,7 +3050,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -3095,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -3157,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -3297,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -3323,7 +3379,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -3382,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0</v>
       </c>
@@ -3441,7 +3497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -3539,7 +3595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -3724,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -3750,7 +3806,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0</v>
       </c>
@@ -3851,7 +3907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -3913,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0</v>
       </c>
@@ -4053,7 +4109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -4079,7 +4135,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="51" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -4180,7 +4236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -4242,7 +4298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0</v>
       </c>
@@ -4382,7 +4438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -4408,7 +4464,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="55" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0</v>
       </c>
@@ -4494,7 +4550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0</v>
       </c>
@@ -4553,7 +4609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -4651,7 +4707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -4836,7 +4892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -4862,7 +4918,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="63" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0</v>
       </c>
@@ -4981,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -5043,7 +5099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0</v>
       </c>
@@ -5236,7 +5292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0</v>
       </c>
@@ -5355,7 +5411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -5417,7 +5473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -5557,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -5583,7 +5639,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="71" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -5642,7 +5698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -5701,7 +5757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -6064,7 +6120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0</v>
       </c>
@@ -6165,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -6227,7 +6283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -6367,7 +6423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -6390,7 +6446,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="83" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -6491,7 +6547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0</v>
       </c>
@@ -6553,7 +6609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -6693,7 +6749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -6719,7 +6775,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="87" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -6778,7 +6834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -6837,7 +6893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0</v>
       </c>
@@ -7200,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0</v>
       </c>
@@ -7301,7 +7357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -7363,7 +7419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0</v>
       </c>
@@ -7503,7 +7559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -7526,7 +7582,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>0</v>
       </c>
@@ -7627,7 +7683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -7689,7 +7745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>0</v>
       </c>
@@ -7882,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -7941,7 +7997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>0</v>
       </c>
@@ -8000,7 +8056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -8098,7 +8154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -8325,7 +8381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>0</v>
       </c>
@@ -8348,7 +8404,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="111" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>0</v>
       </c>
@@ -8449,7 +8505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>0</v>
       </c>
@@ -8511,7 +8567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>0</v>
       </c>
@@ -8749,7 +8805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>0</v>
       </c>
@@ -8850,7 +8906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>0</v>
       </c>
@@ -8912,7 +8968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>0</v>
       </c>
@@ -9150,7 +9206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>0</v>
       </c>
@@ -9209,7 +9265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>0</v>
       </c>
@@ -9268,7 +9324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>0</v>
       </c>
@@ -9778,7 +9834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>0</v>
       </c>
@@ -9879,7 +9935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>0</v>
       </c>
@@ -9941,7 +9997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>0</v>
       </c>
@@ -10179,7 +10235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>0</v>
       </c>
@@ -10280,7 +10336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>0</v>
       </c>
@@ -10342,7 +10398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -10482,7 +10538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -10505,7 +10561,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="135" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -10564,7 +10620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>0</v>
       </c>
@@ -10623,7 +10679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>0</v>
       </c>
@@ -10721,7 +10777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>0</v>
       </c>
@@ -11038,7 +11094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>0</v>
       </c>
@@ -11064,7 +11120,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="143" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>0</v>
       </c>
@@ -11165,7 +11221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -11227,7 +11283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -11367,7 +11423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>0</v>
       </c>
@@ -11393,7 +11449,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="147" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>0</v>
       </c>
@@ -11494,7 +11550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>0</v>
       </c>
@@ -11556,7 +11612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>0</v>
       </c>
@@ -11794,7 +11850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>0</v>
       </c>
@@ -11853,7 +11909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>0</v>
       </c>
@@ -11912,7 +11968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>0</v>
       </c>
@@ -12500,7 +12556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>0</v>
       </c>
@@ -12601,7 +12657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>0</v>
       </c>
@@ -12663,7 +12719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>0</v>
       </c>
@@ -12901,7 +12957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>0</v>
       </c>
@@ -13002,7 +13058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>0</v>
       </c>
@@ -13064,7 +13120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>0</v>
       </c>
@@ -13204,7 +13260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>0</v>
       </c>
@@ -13227,7 +13283,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="167" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>0</v>
       </c>
@@ -13286,7 +13342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>0</v>
       </c>
@@ -13345,7 +13401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>0</v>
       </c>
@@ -13855,7 +13911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>0</v>
       </c>
@@ -13956,7 +14012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>0</v>
       </c>
@@ -14018,7 +14074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>0</v>
       </c>
@@ -14158,7 +14214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>0</v>
       </c>
@@ -14184,7 +14240,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="179" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>0</v>
       </c>
@@ -14285,7 +14341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>0</v>
       </c>
@@ -14347,7 +14403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>0</v>
       </c>
@@ -14487,7 +14543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>0</v>
       </c>
@@ -14510,7 +14566,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="183" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>0</v>
       </c>
@@ -14569,7 +14625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>0</v>
       </c>
@@ -14628,7 +14684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>0</v>
       </c>
@@ -15079,7 +15135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>0</v>
       </c>
@@ -15105,7 +15161,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="191" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>0</v>
       </c>
@@ -15206,7 +15262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>0</v>
       </c>
@@ -15268,7 +15324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>0</v>
       </c>
@@ -15408,7 +15464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>0</v>
       </c>
@@ -15431,7 +15487,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="195" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>0</v>
       </c>
@@ -15532,7 +15588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>0</v>
       </c>
@@ -15594,7 +15650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>0</v>
       </c>
@@ -15734,7 +15790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>0</v>
       </c>
@@ -15757,7 +15813,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="199" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>0</v>
       </c>
@@ -15816,7 +15872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>0</v>
       </c>
@@ -15875,7 +15931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>0</v>
       </c>
@@ -15973,7 +16029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>0</v>
       </c>
@@ -16290,7 +16346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>0</v>
       </c>
@@ -16313,7 +16369,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="207" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>0</v>
       </c>
@@ -16414,7 +16470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>0</v>
       </c>
@@ -16476,7 +16532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>0</v>
       </c>
@@ -16616,7 +16672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>0</v>
       </c>
@@ -16639,7 +16695,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="211" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -16740,7 +16796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>0</v>
       </c>
@@ -16802,7 +16858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>0</v>
       </c>
@@ -17040,7 +17096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>0</v>
       </c>
@@ -17099,7 +17155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>0</v>
       </c>
@@ -17158,7 +17214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>0</v>
       </c>
@@ -17256,7 +17312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>0</v>
       </c>
@@ -17593,7 +17649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>0</v>
       </c>
@@ -17694,7 +17750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>0</v>
       </c>
@@ -17756,7 +17812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>0</v>
       </c>
@@ -17994,7 +18050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>0</v>
       </c>
@@ -18095,7 +18151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>0</v>
       </c>
@@ -18157,7 +18213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>0</v>
       </c>
@@ -18356,7 +18412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -18415,7 +18471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>0</v>
       </c>
@@ -18474,7 +18530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>0</v>
       </c>
@@ -19023,7 +19079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>0</v>
       </c>
@@ -19124,7 +19180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>0</v>
       </c>
@@ -19186,7 +19242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>0</v>
       </c>
@@ -19326,7 +19382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>0</v>
       </c>
@@ -19349,7 +19405,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="243" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>0</v>
       </c>
@@ -19450,7 +19506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>0</v>
       </c>
@@ -19512,7 +19568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>0</v>
       </c>
@@ -19652,7 +19708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -19675,7 +19731,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="247" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>0</v>
       </c>
@@ -19734,7 +19790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>0</v>
       </c>
@@ -19793,7 +19849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>0</v>
       </c>
@@ -19891,7 +19947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>0</v>
       </c>
@@ -20228,7 +20284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>0</v>
       </c>
@@ -20329,7 +20385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>0</v>
       </c>
@@ -20391,7 +20447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>0</v>
       </c>
@@ -20531,7 +20587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>0</v>
       </c>
@@ -20554,7 +20610,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="259" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>0</v>
       </c>
@@ -20655,7 +20711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>0</v>
       </c>
@@ -20717,7 +20773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>0</v>
       </c>
@@ -20916,7 +20972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>0</v>
       </c>
@@ -20975,7 +21031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>0</v>
       </c>
@@ -21034,7 +21090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>0</v>
       </c>
@@ -21132,7 +21188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>0</v>
       </c>
@@ -21511,7 +21567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>0</v>
       </c>
@@ -21612,7 +21668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>0</v>
       </c>
@@ -21674,7 +21730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>0</v>
       </c>
@@ -21814,7 +21870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>0</v>
       </c>
@@ -21837,7 +21893,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="275" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>0</v>
       </c>
@@ -21938,7 +21994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>0</v>
       </c>
@@ -22000,7 +22056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>0</v>
       </c>
@@ -22140,7 +22196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>0</v>
       </c>
@@ -22163,7 +22219,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="279" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>0</v>
       </c>
@@ -22222,7 +22278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>0</v>
       </c>
@@ -22281,7 +22337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>0</v>
       </c>
@@ -22654,7 +22710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>0</v>
       </c>
@@ -22677,7 +22733,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="287" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>0</v>
       </c>
@@ -22778,7 +22834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>0</v>
       </c>
@@ -22840,7 +22896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>0</v>
       </c>
@@ -23078,7 +23134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>0</v>
       </c>
@@ -23179,7 +23235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>0</v>
       </c>
@@ -23241,7 +23297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>0</v>
       </c>
@@ -23381,7 +23437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>0</v>
       </c>
@@ -23404,7 +23460,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="295" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>0</v>
       </c>
@@ -23463,7 +23519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>0</v>
       </c>
@@ -23522,7 +23578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>0</v>
       </c>
@@ -23620,7 +23676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>0</v>
       </c>
@@ -23984,7 +24040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>0</v>
       </c>
@@ -24085,7 +24141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>0</v>
       </c>
@@ -24147,7 +24203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>0</v>
       </c>
@@ -24287,7 +24343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>0</v>
       </c>
@@ -24310,7 +24366,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="307" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>0</v>
       </c>
@@ -24411,7 +24467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>0</v>
       </c>
@@ -24473,7 +24529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>0</v>
       </c>
@@ -24613,7 +24669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>0</v>
       </c>
@@ -24636,7 +24692,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="311" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>0</v>
       </c>
@@ -24695,7 +24751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>0</v>
       </c>
@@ -24754,7 +24810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>0</v>
       </c>
@@ -25166,7 +25222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>0</v>
       </c>
@@ -25189,7 +25245,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="319" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>0</v>
       </c>
@@ -25290,7 +25346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>0</v>
       </c>
@@ -25352,7 +25408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>0</v>
       </c>
@@ -25492,7 +25548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>0</v>
       </c>
@@ -25515,7 +25571,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="323" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>0</v>
       </c>
@@ -25669,7 +25725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>0</v>
       </c>
@@ -25907,7 +25963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>0</v>
       </c>
@@ -25966,7 +26022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>0</v>
       </c>
@@ -26025,7 +26081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>0</v>
       </c>
@@ -26123,7 +26179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>0</v>
       </c>
@@ -26401,7 +26457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>0</v>
       </c>
@@ -26424,7 +26480,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="335" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>0</v>
       </c>
@@ -26525,7 +26581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>0</v>
       </c>
@@ -26587,7 +26643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>0</v>
       </c>
@@ -26786,7 +26842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>0</v>
       </c>
@@ -26887,7 +26943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>0</v>
       </c>
@@ -26949,7 +27005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -27089,7 +27145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>0</v>
       </c>
@@ -27112,7 +27168,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="343" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>0</v>
       </c>
@@ -27171,7 +27227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>0</v>
       </c>
@@ -27230,7 +27286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>0</v>
       </c>
@@ -27328,7 +27384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>0</v>
       </c>
@@ -27704,7 +27760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>0</v>
       </c>
@@ -27805,7 +27861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>0</v>
       </c>
@@ -27867,7 +27923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>0</v>
       </c>
@@ -28007,7 +28063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>0</v>
       </c>
@@ -28030,7 +28086,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="355" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>0</v>
       </c>
@@ -28131,7 +28187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>0</v>
       </c>
@@ -28193,7 +28249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>0</v>
       </c>
@@ -28333,7 +28389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>0</v>
       </c>
@@ -28356,7 +28412,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="359" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>0</v>
       </c>
@@ -28415,7 +28471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>0</v>
       </c>
@@ -28474,7 +28530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>0</v>
       </c>
@@ -28572,7 +28628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>0</v>
       </c>
@@ -28870,7 +28926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>0</v>
       </c>
@@ -28971,7 +29027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>0</v>
       </c>
@@ -29033,7 +29089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -29271,7 +29327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>0</v>
       </c>
@@ -29372,7 +29428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>0</v>
       </c>
@@ -29434,7 +29490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>0</v>
       </c>
@@ -29672,7 +29728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>0</v>
       </c>
@@ -29731,7 +29787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>0</v>
       </c>
@@ -29790,7 +29846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>0</v>
       </c>
@@ -29888,7 +29944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>0</v>
       </c>
@@ -30225,7 +30281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>0</v>
       </c>
@@ -30326,7 +30382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>0</v>
       </c>
@@ -30388,7 +30444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>0</v>
       </c>
@@ -30626,7 +30682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>0</v>
       </c>
@@ -30780,7 +30836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>0</v>
       </c>
@@ -30920,7 +30976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>0</v>
       </c>
@@ -30943,7 +30999,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="391" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>0</v>
       </c>
@@ -31002,7 +31058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>0</v>
       </c>
@@ -31061,7 +31117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>0</v>
       </c>
@@ -31473,7 +31529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>0</v>
       </c>
@@ -31496,7 +31552,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="399" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>0</v>
       </c>
@@ -31597,7 +31653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>0</v>
       </c>
@@ -31659,7 +31715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>0</v>
       </c>
@@ -31799,7 +31855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>0</v>
       </c>
@@ -31822,7 +31878,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="403" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>0</v>
       </c>
@@ -31923,7 +31979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>0</v>
       </c>
@@ -31985,7 +32041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>0</v>
       </c>
@@ -32223,7 +32279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>0</v>
       </c>
@@ -32282,7 +32338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>0</v>
       </c>
@@ -32341,7 +32397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>0</v>
       </c>
@@ -32439,7 +32495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>0</v>
       </c>
@@ -32737,7 +32793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>0</v>
       </c>
@@ -32838,7 +32894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>0</v>
       </c>
@@ -32900,7 +32956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>0</v>
       </c>
@@ -33138,7 +33194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>0</v>
       </c>
@@ -33239,7 +33295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>0</v>
       </c>
@@ -33301,7 +33357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>0</v>
       </c>
@@ -33500,7 +33556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>0</v>
       </c>
@@ -33559,7 +33615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>0</v>
       </c>
@@ -33618,7 +33674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>0</v>
       </c>
@@ -34089,7 +34145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>0</v>
       </c>
@@ -34190,7 +34246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>0</v>
       </c>
@@ -34252,7 +34308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>0</v>
       </c>
@@ -34392,7 +34448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>0</v>
       </c>
@@ -34415,7 +34471,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="435" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>0</v>
       </c>
@@ -34516,7 +34572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>0</v>
       </c>
@@ -34578,7 +34634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="437" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>0</v>
       </c>
@@ -34718,7 +34774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>0</v>
       </c>
@@ -34741,7 +34797,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="439" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>0</v>
       </c>
@@ -34800,7 +34856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>0</v>
       </c>
@@ -34859,7 +34915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>0</v>
       </c>
@@ -34957,7 +35013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>0</v>
       </c>
@@ -35121,7 +35177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>0</v>
       </c>
@@ -35144,7 +35200,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="447" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>0</v>
       </c>
@@ -35245,7 +35301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>0</v>
       </c>
@@ -35307,7 +35363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>0</v>
       </c>
@@ -35447,7 +35503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>0</v>
       </c>
@@ -35470,7 +35526,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="451" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>0</v>
       </c>
@@ -35624,7 +35680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>0</v>
       </c>
@@ -35764,7 +35820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>0</v>
       </c>
@@ -35787,7 +35843,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="455" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>0</v>
       </c>
@@ -35846,7 +35902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>0</v>
       </c>
@@ -35905,7 +35961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>0</v>
       </c>
@@ -36003,7 +36059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>0</v>
       </c>
@@ -36184,7 +36240,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="463" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>0</v>
       </c>
@@ -36285,7 +36341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>0</v>
       </c>
@@ -36347,7 +36403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>0</v>
       </c>
@@ -36487,7 +36543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>0</v>
       </c>
@@ -36510,7 +36566,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="467" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>0</v>
       </c>
@@ -36611,7 +36667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>0</v>
       </c>
@@ -36673,7 +36729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>0</v>
       </c>
@@ -36813,7 +36869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>0</v>
       </c>
@@ -36836,7 +36892,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="471" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>0</v>
       </c>
@@ -36895,7 +36951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>0</v>
       </c>
@@ -36954,7 +37010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>0</v>
       </c>
@@ -37052,7 +37108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>0</v>
       </c>
@@ -37180,7 +37236,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="478" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>0</v>
       </c>
@@ -37203,7 +37259,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="479" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>0</v>
       </c>
@@ -37304,7 +37360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>0</v>
       </c>
@@ -37366,7 +37422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>0</v>
       </c>
@@ -37506,7 +37562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>0</v>
       </c>
@@ -37532,7 +37588,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="483" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>0</v>
       </c>
@@ -37633,7 +37689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>0</v>
       </c>
@@ -37695,7 +37751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>0</v>
       </c>
@@ -37835,7 +37891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>0</v>
       </c>
@@ -37858,7 +37914,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="487" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>0</v>
       </c>
@@ -37917,7 +37973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>0</v>
       </c>
@@ -37976,7 +38032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>0</v>
       </c>
@@ -38261,7 +38317,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="495" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>0</v>
       </c>
@@ -38362,7 +38418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>0</v>
       </c>
@@ -38424,7 +38480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>0</v>
       </c>
@@ -38587,7 +38643,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="499" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>0</v>
       </c>
@@ -38688,7 +38744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>0</v>
       </c>
@@ -38750,7 +38806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>0</v>
       </c>
@@ -38913,7 +38969,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="503" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>0</v>
       </c>
@@ -38972,7 +39028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>0</v>
       </c>
@@ -39031,7 +39087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>0</v>
       </c>
@@ -39129,7 +39185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>0</v>
       </c>
@@ -39152,7 +39208,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="507" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>0</v>
       </c>
@@ -39260,7 +39316,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="510" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>0</v>
       </c>
@@ -39286,7 +39342,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="511" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>0</v>
       </c>
@@ -39387,7 +39443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>0</v>
       </c>
@@ -39443,7 +39499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>0</v>
       </c>
@@ -39642,7 +39698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>0</v>
       </c>
@@ -39743,7 +39799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>0</v>
       </c>
@@ -39799,7 +39855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>0</v>
       </c>
@@ -39962,7 +40018,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="519" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>0</v>
       </c>
@@ -40021,7 +40077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>0</v>
       </c>
@@ -40080,7 +40136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>0</v>
       </c>
@@ -40329,7 +40385,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="527" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>0</v>
       </c>
@@ -40430,7 +40486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>0</v>
       </c>
@@ -40492,7 +40548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="529" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>0</v>
       </c>
@@ -40632,7 +40688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="530" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>0</v>
       </c>
@@ -40655,7 +40711,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="531" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>0</v>
       </c>
@@ -40756,7 +40812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>0</v>
       </c>
@@ -40818,7 +40874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>0</v>
       </c>
@@ -41017,7 +41073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>0</v>
       </c>
@@ -41076,7 +41132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>0</v>
       </c>
@@ -41135,7 +41191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>0</v>
       </c>
@@ -41279,7 +41335,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="540" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>0</v>
       </c>
@@ -41394,7 +41450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>0</v>
       </c>
@@ -41417,7 +41473,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="543" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>0</v>
       </c>
@@ -41518,7 +41574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>0</v>
       </c>
@@ -41580,7 +41636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>0</v>
       </c>
@@ -41743,7 +41799,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="547" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>0</v>
       </c>
@@ -41844,7 +41900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>0</v>
       </c>
@@ -41906,7 +41962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>0</v>
       </c>
@@ -42046,7 +42102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>0</v>
       </c>
@@ -42069,7 +42125,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="551" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>0</v>
       </c>
@@ -42128,7 +42184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>0</v>
       </c>
@@ -42187,7 +42243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="553" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>0</v>
       </c>
@@ -42285,7 +42341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>0</v>
       </c>
@@ -42436,7 +42492,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="559" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>0</v>
       </c>
@@ -42537,7 +42593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>0</v>
       </c>
@@ -42599,7 +42655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>0</v>
       </c>
@@ -42762,7 +42818,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="563" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>0</v>
       </c>
@@ -42863,7 +42919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>0</v>
       </c>
@@ -42925,7 +42981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>0</v>
       </c>
@@ -43124,7 +43180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>0</v>
       </c>
@@ -43183,7 +43239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>0</v>
       </c>
@@ -43242,7 +43298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>0</v>
       </c>
@@ -43363,7 +43419,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="571" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>0</v>
       </c>
@@ -43465,7 +43521,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="574" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>0</v>
       </c>
@@ -43488,7 +43544,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="575" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>0</v>
       </c>
@@ -43589,7 +43645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>0</v>
       </c>
@@ -43651,7 +43707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>0</v>
       </c>
@@ -43850,7 +43906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>0</v>
       </c>
@@ -43951,7 +44007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>0</v>
       </c>
@@ -44013,7 +44069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>0</v>
       </c>
@@ -44153,7 +44209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>0</v>
       </c>
@@ -44176,7 +44232,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="583" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>0</v>
       </c>
@@ -44235,7 +44291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>0</v>
       </c>
@@ -44294,7 +44350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="585" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>0</v>
       </c>
@@ -44392,7 +44448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="586" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>0</v>
       </c>
@@ -44520,7 +44576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="590" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>0</v>
       </c>
@@ -44543,7 +44599,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="591" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>0</v>
       </c>
@@ -44644,7 +44700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>0</v>
       </c>
@@ -44706,7 +44762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>0</v>
       </c>
@@ -44846,7 +44902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="594" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>0</v>
       </c>
@@ -44872,7 +44928,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="595" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>0</v>
       </c>
@@ -44973,7 +45029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>0</v>
       </c>
@@ -45035,7 +45091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>0</v>
       </c>
@@ -45175,7 +45231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>0</v>
       </c>
@@ -45198,7 +45254,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="599" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>0</v>
       </c>
@@ -45257,7 +45313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>0</v>
       </c>
@@ -45316,7 +45372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>0</v>
       </c>
@@ -45414,7 +45470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>0</v>
       </c>
@@ -45545,7 +45601,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="606" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>0</v>
       </c>
@@ -45568,7 +45624,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="607" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>0</v>
       </c>
@@ -45669,7 +45725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="608" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>0</v>
       </c>
@@ -45731,7 +45787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="609" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>0</v>
       </c>
@@ -45871,7 +45927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>0</v>
       </c>
@@ -45897,7 +45953,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="611" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>0</v>
       </c>
@@ -45998,7 +46054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>0</v>
       </c>
@@ -46060,7 +46116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>0</v>
       </c>
@@ -46200,7 +46256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>0</v>
       </c>
@@ -46223,7 +46279,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="615" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>0</v>
       </c>
@@ -46282,7 +46338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="616" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>0</v>
       </c>
@@ -46341,7 +46397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="617" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>0</v>
       </c>
@@ -46439,7 +46495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="618" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>0</v>
       </c>
@@ -46570,7 +46626,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="622" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>0</v>
       </c>
@@ -46596,7 +46652,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="623" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>0</v>
       </c>
@@ -46697,7 +46753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="624" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>0</v>
       </c>
@@ -46759,7 +46815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>0</v>
       </c>
@@ -46899,7 +46955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>0</v>
       </c>
@@ -46922,7 +46978,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="627" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>0</v>
       </c>
@@ -47023,7 +47079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="628" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>0</v>
       </c>
@@ -47085,7 +47141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>0</v>
       </c>
@@ -47225,7 +47281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="630" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>0</v>
       </c>
@@ -47251,7 +47307,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="631" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>0</v>
       </c>
@@ -47310,7 +47366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="632" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>0</v>
       </c>
@@ -47369,7 +47425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>0</v>
       </c>
@@ -47467,7 +47523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>0</v>
       </c>
@@ -47634,7 +47690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>0</v>
       </c>
@@ -47660,7 +47716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>0</v>
       </c>
@@ -47761,7 +47817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="640" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>0</v>
       </c>
@@ -47823,7 +47879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="641" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>0</v>
       </c>
@@ -47963,7 +48019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>0</v>
       </c>
@@ -47989,7 +48045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="643" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>0</v>
       </c>
@@ -48090,7 +48146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="644" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>0</v>
       </c>
@@ -48152,7 +48208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>0</v>
       </c>
@@ -48292,7 +48348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>0</v>
       </c>
@@ -48318,7 +48374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="647" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>0</v>
       </c>
@@ -48377,7 +48433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="648" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>0</v>
       </c>
@@ -48436,7 +48492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="649" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>0</v>
       </c>
@@ -48534,7 +48590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="650" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>0</v>
       </c>
@@ -48665,7 +48721,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="654" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>0</v>
       </c>
@@ -48691,7 +48747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="655" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>0</v>
       </c>
@@ -48792,7 +48848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="656" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>0</v>
       </c>
@@ -48854,7 +48910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="657" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>0</v>
       </c>
@@ -48994,7 +49050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="658" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>0</v>
       </c>
@@ -49020,7 +49076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>0</v>
       </c>
@@ -49121,7 +49177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>0</v>
       </c>
@@ -49183,7 +49239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="661" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>0</v>
       </c>
@@ -49323,7 +49379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="662" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>0</v>
       </c>
@@ -49349,7 +49405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="663" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>0</v>
       </c>
@@ -49408,7 +49464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>0</v>
       </c>
@@ -49467,7 +49523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="665" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>0</v>
       </c>
@@ -49565,7 +49621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>0</v>
       </c>
@@ -49696,7 +49752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>0</v>
       </c>
@@ -49722,7 +49778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="671" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>0</v>
       </c>
@@ -49823,7 +49879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>0</v>
       </c>
@@ -49885,7 +49941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>0</v>
       </c>
@@ -50025,7 +50081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>0</v>
       </c>
@@ -50051,7 +50107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>0</v>
       </c>
@@ -50152,7 +50208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>0</v>
       </c>
@@ -50214,7 +50270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>0</v>
       </c>
@@ -50354,7 +50410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>0</v>
       </c>
@@ -50380,7 +50436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>0</v>
       </c>
@@ -50439,7 +50495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>0</v>
       </c>
@@ -50498,7 +50554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>0</v>
       </c>
@@ -50596,7 +50652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>0</v>
       </c>
@@ -50691,7 +50747,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="686" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>0</v>
       </c>
@@ -50717,7 +50773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>0</v>
       </c>
@@ -50818,7 +50874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>0</v>
       </c>
@@ -50880,7 +50936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>0</v>
       </c>
@@ -51020,7 +51076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>0</v>
       </c>
@@ -51046,7 +51102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>0</v>
       </c>
@@ -51147,7 +51203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>0</v>
       </c>
@@ -51209,7 +51265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>0</v>
       </c>
@@ -51349,7 +51405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>0</v>
       </c>
@@ -51375,7 +51431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>0</v>
       </c>
@@ -51434,7 +51490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>0</v>
       </c>
@@ -51493,7 +51549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="697" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>0</v>
       </c>
@@ -51591,7 +51647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="698" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>0</v>
       </c>
@@ -51758,7 +51814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>0</v>
       </c>
@@ -51784,7 +51840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="703" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>0</v>
       </c>
@@ -51885,7 +51941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>0</v>
       </c>
@@ -51947,7 +52003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>0</v>
       </c>
@@ -52087,7 +52143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>0</v>
       </c>
@@ -52113,7 +52169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>0</v>
       </c>
@@ -52214,7 +52270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>0</v>
       </c>
@@ -52276,7 +52332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>0</v>
       </c>
@@ -52416,7 +52472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>0</v>
       </c>
@@ -52442,7 +52498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>0</v>
       </c>
@@ -52501,7 +52557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>0</v>
       </c>
@@ -52560,7 +52616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>0</v>
       </c>
@@ -52658,7 +52714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>0</v>
       </c>
@@ -52753,7 +52809,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="718" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>0</v>
       </c>
@@ -52779,7 +52835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="719" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>0</v>
       </c>
@@ -52880,7 +52936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>0</v>
       </c>
@@ -52942,7 +52998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="721" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>0</v>
       </c>
@@ -53082,7 +53138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>0</v>
       </c>
@@ -53108,7 +53164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="723" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>0</v>
       </c>
@@ -53209,7 +53265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="724" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>0</v>
       </c>
@@ -53271,7 +53327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>0</v>
       </c>
@@ -53411,7 +53467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>0</v>
       </c>
@@ -53437,7 +53493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>0</v>
       </c>
@@ -53496,7 +53552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>0</v>
       </c>
@@ -53555,7 +53611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>0</v>
       </c>
@@ -53653,7 +53709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>0</v>
       </c>
@@ -53784,7 +53840,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="734" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>0</v>
       </c>
@@ -53810,7 +53866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>0</v>
       </c>
@@ -53911,7 +53967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>0</v>
       </c>
@@ -53973,7 +54029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="737" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>0</v>
       </c>
@@ -54113,7 +54169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>0</v>
       </c>
@@ -54139,7 +54195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="739" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>0</v>
       </c>
@@ -54240,7 +54296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="740" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>0</v>
       </c>
@@ -54302,7 +54358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="741" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>0</v>
       </c>
@@ -54442,7 +54498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>0</v>
       </c>
@@ -54468,7 +54524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>0</v>
       </c>
@@ -54527,7 +54583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="744" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>0</v>
       </c>
@@ -54586,7 +54642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="745" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>0</v>
       </c>
@@ -54684,7 +54740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="746" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>0</v>
       </c>
@@ -54851,7 +54907,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="750" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>0</v>
       </c>
@@ -54877,7 +54933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="751" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>0</v>
       </c>
@@ -54978,7 +55034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="752" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>0</v>
       </c>
@@ -55040,7 +55096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="753" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>0</v>
       </c>
@@ -55180,7 +55236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>0</v>
       </c>
@@ -55206,7 +55262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>0</v>
       </c>
@@ -55307,7 +55363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>0</v>
       </c>
@@ -55369,7 +55425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>0</v>
       </c>
@@ -55509,7 +55565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>0</v>
       </c>
@@ -55535,7 +55591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>0</v>
       </c>
@@ -55594,7 +55650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>0</v>
       </c>
@@ -55653,7 +55709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>0</v>
       </c>
@@ -55751,7 +55807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>0</v>
       </c>
@@ -55918,7 +55974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>0</v>
       </c>
@@ -55944,7 +56000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>0</v>
       </c>
@@ -56045,7 +56101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>0</v>
       </c>
@@ -56107,7 +56163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>0</v>
       </c>
@@ -56247,7 +56303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>0</v>
       </c>
@@ -56273,7 +56329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>0</v>
       </c>
@@ -56374,7 +56430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
         <v>0</v>
       </c>
@@ -56436,7 +56492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>0</v>
       </c>
@@ -56576,7 +56632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>0</v>
       </c>
@@ -56602,7 +56658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="775" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>0</v>
       </c>
@@ -56661,7 +56717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>0</v>
       </c>
@@ -56720,7 +56776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>0</v>
       </c>
@@ -56818,7 +56874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>0</v>
       </c>
@@ -56913,7 +56969,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="782" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>0</v>
       </c>
@@ -56939,7 +56995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>0</v>
       </c>
@@ -57040,7 +57096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>0</v>
       </c>
@@ -57102,7 +57158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>0</v>
       </c>
@@ -57242,7 +57298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="786" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>0</v>
       </c>
@@ -57268,7 +57324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="787" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>0</v>
       </c>
@@ -57369,7 +57425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="788" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>0</v>
       </c>
@@ -57431,7 +57487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="789" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>0</v>
       </c>
@@ -57571,7 +57627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>0</v>
       </c>
@@ -57597,7 +57653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>0</v>
       </c>
@@ -57656,7 +57712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>0</v>
       </c>
@@ -57715,7 +57771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
         <v>0</v>
       </c>
@@ -57813,7 +57869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>0</v>
       </c>
@@ -57944,7 +58000,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="798" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
         <v>0</v>
       </c>
@@ -57970,7 +58026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="799" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
         <v>0</v>
       </c>
@@ -58071,7 +58127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>0</v>
       </c>
@@ -58133,7 +58189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="801" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
         <v>0</v>
       </c>
@@ -58273,7 +58329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="802" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
         <v>0</v>
       </c>
@@ -58299,7 +58355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="803" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>0</v>
       </c>
@@ -58400,7 +58456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="804" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
         <v>0</v>
       </c>
@@ -58462,7 +58518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>0</v>
       </c>
@@ -58602,7 +58658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>0</v>
       </c>
@@ -58628,7 +58684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>0</v>
       </c>
@@ -58687,7 +58743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
         <v>0</v>
       </c>
@@ -58746,7 +58802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="809" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>0</v>
       </c>
@@ -58844,7 +58900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
         <v>0</v>
       </c>
@@ -58975,7 +59031,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="814" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>0</v>
       </c>
@@ -59001,7 +59057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
         <v>0</v>
       </c>
@@ -59102,7 +59158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>0</v>
       </c>
@@ -59164,7 +59220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="817" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
         <v>0</v>
       </c>
@@ -59304,7 +59360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="818" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
         <v>0</v>
       </c>
@@ -59330,7 +59386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="819" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
         <v>0</v>
       </c>
@@ -59431,7 +59487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="820" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
         <v>0</v>
       </c>
@@ -59493,7 +59549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
         <v>0</v>
       </c>
@@ -59633,7 +59689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
         <v>0</v>
       </c>
@@ -59659,7 +59715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="823" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
         <v>0</v>
       </c>
@@ -59718,7 +59774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
         <v>0</v>
       </c>
@@ -59777,7 +59833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="825" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
         <v>0</v>
       </c>
@@ -59875,7 +59931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
         <v>0</v>
       </c>
@@ -60006,7 +60062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="830" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
         <v>0</v>
       </c>
@@ -60032,7 +60088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
         <v>0</v>
       </c>
@@ -60133,7 +60189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="832" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
         <v>0</v>
       </c>
@@ -60195,7 +60251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
         <v>0</v>
       </c>
@@ -60335,7 +60391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
         <v>0</v>
       </c>
@@ -60361,7 +60417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="835" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
         <v>0</v>
       </c>
@@ -60462,7 +60518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
         <v>0</v>
       </c>
@@ -60524,7 +60580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="837" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
         <v>0</v>
       </c>
@@ -60664,7 +60720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
         <v>0</v>
       </c>
@@ -60690,7 +60746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
         <v>0</v>
       </c>
@@ -60749,7 +60805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
         <v>0</v>
       </c>
@@ -60808,7 +60864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
         <v>0</v>
       </c>
@@ -60906,7 +60962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
         <v>0</v>
       </c>
@@ -61037,7 +61093,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="846" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
         <v>0</v>
       </c>
@@ -61063,7 +61119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
         <v>0</v>
       </c>
@@ -61164,7 +61220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
         <v>0</v>
       </c>
@@ -61226,7 +61282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
         <v>0</v>
       </c>
@@ -61366,7 +61422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="850" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
         <v>0</v>
       </c>
@@ -61392,7 +61448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="851" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
         <v>0</v>
       </c>
@@ -61493,7 +61549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="852" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
         <v>0</v>
       </c>
@@ -61555,7 +61611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="853" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
         <v>0</v>
       </c>
@@ -61695,7 +61751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="854" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
         <v>0</v>
       </c>
@@ -61721,7 +61777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
         <v>0</v>
       </c>
@@ -61780,7 +61836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
         <v>0</v>
       </c>
@@ -61839,7 +61895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
         <v>0</v>
       </c>
@@ -61937,7 +61993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
         <v>0</v>
       </c>
@@ -62032,7 +62088,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="862" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
         <v>0</v>
       </c>
@@ -62058,7 +62114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
         <v>0</v>
       </c>
@@ -62159,7 +62215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
         <v>0</v>
       </c>
@@ -62221,7 +62277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="865" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
         <v>0</v>
       </c>
@@ -62361,7 +62417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
         <v>0</v>
       </c>
@@ -62387,7 +62443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="867" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
         <v>0</v>
       </c>
@@ -62488,7 +62544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="868" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
         <v>0</v>
       </c>
@@ -62550,7 +62606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="869" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
         <v>0</v>
       </c>
@@ -62690,7 +62746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
         <v>0</v>
       </c>
@@ -62716,7 +62772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
         <v>0</v>
       </c>
@@ -62775,7 +62831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
         <v>0</v>
       </c>
@@ -62834,7 +62890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="873" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
         <v>0</v>
       </c>
@@ -62932,7 +62988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="874" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
         <v>0</v>
       </c>
@@ -63099,7 +63155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="878" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A878" s="1">
         <v>0</v>
       </c>
@@ -63125,7 +63181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="879" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
         <v>0</v>
       </c>
@@ -63226,7 +63282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
         <v>0</v>
       </c>
@@ -63288,7 +63344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
         <v>0</v>
       </c>
@@ -63428,7 +63484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
         <v>0</v>
       </c>
@@ -63454,7 +63510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="883" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
         <v>0</v>
       </c>
@@ -63555,7 +63611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
         <v>0</v>
       </c>
@@ -63617,7 +63673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
         <v>0</v>
       </c>
@@ -63757,7 +63813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="886" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
         <v>0</v>
       </c>
@@ -63783,7 +63839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="887" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A887" s="1">
         <v>0</v>
       </c>
@@ -63842,7 +63898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="888" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A888" s="1">
         <v>0</v>
       </c>
@@ -63901,7 +63957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="889" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A889" s="1">
         <v>0</v>
       </c>
@@ -63999,7 +64055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="890" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A890" s="1">
         <v>0</v>
       </c>
@@ -64202,7 +64258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="894" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A894" s="1">
         <v>0</v>
       </c>
@@ -64228,7 +64284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="895" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A895" s="1">
         <v>0</v>
       </c>
@@ -64329,7 +64385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="896" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A896" s="1">
         <v>0</v>
       </c>
@@ -64391,7 +64447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A897" s="1">
         <v>0</v>
       </c>
@@ -64531,7 +64587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="898" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A898" s="1">
         <v>0</v>
       </c>
@@ -64557,7 +64613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A899" s="1">
         <v>0</v>
       </c>
@@ -64658,7 +64714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A900" s="1">
         <v>0</v>
       </c>
@@ -64720,7 +64776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="901" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A901" s="1">
         <v>0</v>
       </c>
@@ -64860,7 +64916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A902" s="1">
         <v>0</v>
       </c>
@@ -64886,7 +64942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A903" s="1">
         <v>0</v>
       </c>
@@ -64945,7 +65001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="904" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A904" s="1">
         <v>0</v>
       </c>
@@ -65004,7 +65060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="905" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A905" s="1">
         <v>0</v>
       </c>
@@ -65102,7 +65158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A906" s="1">
         <v>0</v>
       </c>
@@ -65305,7 +65361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A910" s="1">
         <v>0</v>
       </c>
@@ -65331,7 +65387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="911" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A911" s="1">
         <v>0</v>
       </c>
@@ -65432,7 +65488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A912" s="1">
         <v>0</v>
       </c>
@@ -65494,7 +65550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="913" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A913" s="1">
         <v>0</v>
       </c>
@@ -65634,7 +65690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="914" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A914" s="1">
         <v>0</v>
       </c>
@@ -65660,7 +65716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="915" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A915" s="1">
         <v>0</v>
       </c>
@@ -65761,7 +65817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="916" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A916" s="1">
         <v>0</v>
       </c>
@@ -65823,7 +65879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A917" s="1">
         <v>0</v>
       </c>
@@ -65963,7 +66019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="918" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A918" s="1">
         <v>0</v>
       </c>
@@ -65989,7 +66045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="919" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A919" s="1">
         <v>0</v>
       </c>
@@ -66048,7 +66104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="920" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A920" s="1">
         <v>0</v>
       </c>
@@ -66107,7 +66163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="921" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A921" s="1">
         <v>0</v>
       </c>
@@ -66205,7 +66261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="922" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A922" s="1">
         <v>0</v>
       </c>
@@ -66408,7 +66464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="926" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A926" s="1">
         <v>0</v>
       </c>
@@ -66434,7 +66490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A927" s="1">
         <v>0</v>
       </c>
@@ -66535,7 +66591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="928" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A928" s="1">
         <v>0</v>
       </c>
@@ -66597,7 +66653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="929" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A929" s="1">
         <v>0</v>
       </c>
@@ -66737,7 +66793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A930" s="1">
         <v>0</v>
       </c>
@@ -66763,7 +66819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A931" s="1">
         <v>0</v>
       </c>
@@ -66864,7 +66920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="932" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A932" s="1">
         <v>0</v>
       </c>
@@ -66926,7 +66982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="933" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A933" s="1">
         <v>0</v>
       </c>
@@ -67066,7 +67122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="934" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A934" s="1">
         <v>0</v>
       </c>
@@ -67092,7 +67148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="935" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A935" s="1">
         <v>0</v>
       </c>
@@ -67151,7 +67207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="936" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A936" s="1">
         <v>0</v>
       </c>
@@ -67210,7 +67266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="937" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A937" s="1">
         <v>0</v>
       </c>
@@ -67308,7 +67364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A938" s="1">
         <v>0</v>
       </c>
@@ -67511,7 +67567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="942" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A942" s="1">
         <v>0</v>
       </c>
@@ -67537,7 +67593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="943" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A943" s="1">
         <v>0</v>
       </c>
@@ -67638,7 +67694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="944" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A944" s="1">
         <v>0</v>
       </c>
@@ -67700,7 +67756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="945" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A945" s="1">
         <v>0</v>
       </c>
@@ -67840,7 +67896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="946" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A946" s="1">
         <v>0</v>
       </c>
@@ -67866,7 +67922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="947" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A947" s="1">
         <v>0</v>
       </c>
@@ -67967,7 +68023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="948" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A948" s="1">
         <v>0</v>
       </c>
@@ -68029,7 +68085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="949" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A949" s="1">
         <v>0</v>
       </c>
@@ -68169,7 +68225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="950" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A950" s="1">
         <v>0</v>
       </c>
@@ -68195,7 +68251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A951" s="1">
         <v>0</v>
       </c>
@@ -68254,7 +68310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="952" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A952" s="1">
         <v>0</v>
       </c>
@@ -68313,7 +68369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="953" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A953" s="1">
         <v>0</v>
       </c>
@@ -68411,7 +68467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="954" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A954" s="1">
         <v>0</v>
       </c>
@@ -68614,7 +68670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="958" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A958" s="1">
         <v>0</v>
       </c>
@@ -68640,7 +68696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A959" s="1">
         <v>0</v>
       </c>
@@ -68741,7 +68797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A960" s="1">
         <v>0</v>
       </c>
@@ -68803,7 +68859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A961" s="1">
         <v>0</v>
       </c>
@@ -68943,7 +68999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A962" s="1">
         <v>0</v>
       </c>
@@ -68969,7 +69025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="963" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A963" s="1">
         <v>0</v>
       </c>
@@ -69070,7 +69126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A964" s="1">
         <v>0</v>
       </c>
@@ -69132,7 +69188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A965" s="1">
         <v>0</v>
       </c>
@@ -69272,7 +69328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="966" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A966" s="1">
         <v>0</v>
       </c>
@@ -69298,7 +69354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A967" s="1">
         <v>0</v>
       </c>
@@ -69357,7 +69413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="968" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A968" s="1">
         <v>0</v>
       </c>
@@ -69416,7 +69472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="969" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A969" s="1">
         <v>0</v>
       </c>
@@ -69514,7 +69570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="970" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A970" s="1">
         <v>0</v>
       </c>
@@ -69717,7 +69773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A974" s="1">
         <v>0</v>
       </c>
@@ -69743,7 +69799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="975" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A975" s="1">
         <v>0</v>
       </c>
@@ -69844,7 +69900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A976" s="1">
         <v>0</v>
       </c>
@@ -69906,7 +69962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="977" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A977" s="1">
         <v>0</v>
       </c>
@@ -70046,7 +70102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="978" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A978" s="1">
         <v>0</v>
       </c>
@@ -70072,7 +70128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A979" s="1">
         <v>0</v>
       </c>
@@ -70173,7 +70229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A980" s="1">
         <v>0</v>
       </c>
@@ -70235,7 +70291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A981" s="1">
         <v>0</v>
       </c>
@@ -70375,7 +70431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="982" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A982" s="1">
         <v>0</v>
       </c>
@@ -70401,7 +70457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="983" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A983" s="1">
         <v>0</v>
       </c>
@@ -70460,7 +70516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="984" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A984" s="1">
         <v>0</v>
       </c>
@@ -70519,7 +70575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="985" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A985" s="1">
         <v>0</v>
       </c>
@@ -70617,7 +70673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="986" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A986" s="1">
         <v>0</v>
       </c>
@@ -70820,7 +70876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="990" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A990" s="1">
         <v>0</v>
       </c>
@@ -70846,7 +70902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="991" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A991" s="1">
         <v>0</v>
       </c>
@@ -70947,7 +71003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A992" s="1">
         <v>0</v>
       </c>
@@ -71009,7 +71065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="993" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A993" s="1">
         <v>0</v>
       </c>
@@ -71149,7 +71205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="994" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A994" s="1">
         <v>0</v>
       </c>
@@ -71175,7 +71231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="995" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A995" s="1">
         <v>0</v>
       </c>
@@ -71276,7 +71332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="996" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A996" s="1">
         <v>0</v>
       </c>
@@ -71338,7 +71394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="997" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A997" s="1">
         <v>0</v>
       </c>
@@ -71478,7 +71534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A998" s="1">
         <v>0</v>
       </c>
@@ -71504,7 +71560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="999" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A999" s="1">
         <v>0</v>
       </c>
@@ -71563,7 +71619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1000" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="1">
         <v>0</v>
       </c>
@@ -71622,7 +71678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1001" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="1">
         <v>0</v>
       </c>
@@ -71720,7 +71776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1002" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1002" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1002" s="1">
         <v>0</v>
       </c>
@@ -71923,7 +71979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1006" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1006" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="1">
         <v>0</v>
       </c>
@@ -71949,7 +72005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1007" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1007" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="1">
         <v>0</v>
       </c>
@@ -72050,7 +72106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1008" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1008" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1008" s="1">
         <v>0</v>
       </c>
@@ -72112,7 +72168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1009" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1009" s="1">
         <v>0</v>
       </c>
@@ -72252,7 +72308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1010" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1010" s="1">
         <v>0</v>
       </c>
@@ -72278,7 +72334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1011" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1011" s="1">
         <v>0</v>
       </c>
@@ -72379,7 +72435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1012" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="1">
         <v>0</v>
       </c>
@@ -72441,7 +72497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1013" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="1">
         <v>0</v>
       </c>
@@ -72581,7 +72637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1014" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1014" s="1">
         <v>0</v>
       </c>
@@ -72607,7 +72663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1015" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1015" s="1">
         <v>0</v>
       </c>
@@ -72666,7 +72722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1016" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1016" s="1">
         <v>0</v>
       </c>
@@ -72725,7 +72781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1017" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1017" s="1">
         <v>0</v>
       </c>
@@ -72823,7 +72879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1018" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1018" s="1">
         <v>0</v>
       </c>
@@ -73026,7 +73082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1022" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1022" s="1">
         <v>0</v>
       </c>
@@ -73052,7 +73108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1023" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1023" s="1">
         <v>0</v>
       </c>
@@ -73153,7 +73209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1024" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1024" s="1">
         <v>0</v>
       </c>
@@ -73215,7 +73271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1025" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1025" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1025" s="1">
         <v>0</v>
       </c>
@@ -73355,7 +73411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1026" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1026" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1026" s="1">
         <v>0</v>
       </c>
@@ -73381,7 +73437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1027" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1027" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1027" s="1">
         <v>0</v>
       </c>
@@ -73482,7 +73538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1028" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1028" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1028" s="1">
         <v>0</v>
       </c>
@@ -73544,7 +73600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1029" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1029" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1029" s="1">
         <v>0</v>
       </c>
@@ -73684,7 +73740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1030" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1030" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1030" s="1">
         <v>0</v>
       </c>
@@ -73712,6 +73768,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:BI1030" xr:uid="{33C440B7-C61A-4FD9-B1D8-F97B1089416D}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="success_rewarded"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A320:BI571">
       <sortCondition ref="B6:B1030"/>
     </sortState>

--- a/results/fitting_evaluation_interval_size_0.1_K100_N100_Nelder-Mead.xlsx
+++ b/results/fitting_evaluation_interval_size_0.1_K100_N100_Nelder-Mead.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\workspace\amistat2019\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE57826-D35B-43E1-B457-1E41868955BE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DD0194-F528-4508-A67E-D4DE8060B509}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="5280" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -679,11 +679,11 @@
   <dimension ref="A1:BI1030"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="7" ySplit="6" topLeftCell="BE7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="BG7" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:F2"/>
+      <selection pane="bottomRight" activeCell="BI478" sqref="BI478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,32 +753,32 @@
       <c r="B1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="2" t="e">
         <f>SUBTOTAL(2,AM$7:AM$1030)/SUBTOTAL(2,L$7:L$1030)</f>
-        <v>0.96875</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E1" t="s">
         <v>73</v>
       </c>
-      <c r="F1" s="5">
+      <c r="F1" s="5" t="e">
         <f>SUBTOTAL(1,AS7:BH1030)</f>
-        <v>0.8037109375</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="2" t="e">
         <f>SUBTOTAL(2,U$7:U$1030)/SUBTOTAL(2,I$7:I$1030)</f>
-        <v>0.7890625</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E2" t="s">
         <v>74</v>
       </c>
       <c r="F2" s="6">
         <f>BI5</f>
-        <v>0.77390625000000002</v>
+        <v>0.90749999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
@@ -835,25 +835,25 @@
       <c r="B5" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="2" t="e">
         <f>(SUBTOTAL(2,AM$7:AM$1030)+SUBTOTAL(2,U$7:U$1030)+SUBTOTAL(2,AA$7:AA$1030)+SUBTOTAL(2,AG$7:AG$1030))/(SUBTOTAL(2,I$7:I$1030)+SUBTOTAL(2,L$7:L$1030)+SUBTOTAL(2,J$7:J$1030)+SUBTOTAL(2,K$7:K$1030))</f>
-        <v>0.87890625</v>
-      </c>
-      <c r="AS5" s="2">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS5" s="2" t="str">
         <f>IFERROR(SUBTOTAL(1,AS7:AS1030),"")</f>
-        <v>0.4375</v>
-      </c>
-      <c r="AT5" s="2">
+        <v/>
+      </c>
+      <c r="AT5" s="2" t="str">
         <f t="shared" ref="AT5:BI5" si="0">IFERROR(SUBTOTAL(1,AT7:AT1030),"")</f>
-        <v>0.75</v>
-      </c>
-      <c r="AU5" s="2">
+        <v/>
+      </c>
+      <c r="AU5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.71875</v>
-      </c>
-      <c r="AV5" s="2">
+        <v/>
+      </c>
+      <c r="AV5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.7578125</v>
+        <v/>
       </c>
       <c r="AW5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -887,25 +887,25 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="BE5" s="2">
+      <c r="BE5" s="2" t="str">
         <f>IFERROR(SUBTOTAL(1,BE7:BE1030),"")</f>
-        <v>0.8671875</v>
-      </c>
-      <c r="BF5" s="2">
+        <v/>
+      </c>
+      <c r="BF5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.9609375</v>
-      </c>
-      <c r="BG5" s="2">
+        <v/>
+      </c>
+      <c r="BG5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.96875</v>
-      </c>
-      <c r="BH5" s="2">
+        <v/>
+      </c>
+      <c r="BH5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>0.96875</v>
+        <v/>
       </c>
       <c r="BI5" s="2">
         <f t="shared" si="0"/>
-        <v>0.77390625000000002</v>
+        <v>0.90749999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
@@ -1359,7 +1359,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="59" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -7044,7 +7044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -7150,7 +7150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0</v>
       </c>
@@ -7203,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="107" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>0</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>0</v>
       </c>
@@ -8283,7 +8283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>0</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>0</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>0</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>0</v>
       </c>
@@ -9579,7 +9579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>0</v>
       </c>
@@ -9677,7 +9677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>0</v>
       </c>
@@ -9775,7 +9775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>0</v>
       </c>
@@ -10137,7 +10137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="139" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>0</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>0</v>
       </c>
@@ -11752,7 +11752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>0</v>
       </c>
@@ -12066,7 +12066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>0</v>
       </c>
@@ -12164,7 +12164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>0</v>
       </c>
@@ -12262,7 +12262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>0</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>0</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>0</v>
       </c>
@@ -12859,7 +12859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -13499,7 +13499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>0</v>
       </c>
@@ -13597,7 +13597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>0</v>
       </c>
@@ -13695,7 +13695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>0</v>
       </c>
@@ -13754,7 +13754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>0</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>0</v>
       </c>
@@ -14782,7 +14782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>0</v>
       </c>
@@ -14880,7 +14880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>0</v>
       </c>
@@ -14939,7 +14939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>0</v>
       </c>
@@ -15037,7 +15037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>0</v>
       </c>
@@ -16052,7 +16052,7 @@
         <v>0.78</v>
       </c>
     </row>
-    <row r="203" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>0</v>
       </c>
@@ -16150,7 +16150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>0</v>
       </c>
@@ -16248,7 +16248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>0</v>
       </c>
@@ -16998,7 +16998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>0</v>
       </c>
@@ -17335,7 +17335,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="219" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>0</v>
       </c>
@@ -17433,7 +17433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>0</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>0</v>
       </c>
@@ -17590,7 +17590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>0</v>
       </c>
@@ -17952,7 +17952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>0</v>
       </c>
@@ -18353,7 +18353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>0</v>
       </c>
@@ -18628,7 +18628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>0</v>
       </c>
@@ -18726,7 +18726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>0</v>
       </c>
@@ -18824,7 +18824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>0</v>
       </c>
@@ -18883,7 +18883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>0</v>
       </c>
@@ -18981,7 +18981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>0</v>
       </c>
@@ -19970,7 +19970,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="251" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>0</v>
       </c>
@@ -20029,7 +20029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>0</v>
       </c>
@@ -20088,7 +20088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>0</v>
       </c>
@@ -20186,7 +20186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -20913,7 +20913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>0</v>
       </c>
@@ -21214,7 +21214,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="267" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>0</v>
       </c>
@@ -21312,7 +21312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>0</v>
       </c>
@@ -21410,7 +21410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>0</v>
       </c>
@@ -21469,7 +21469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>0</v>
       </c>
@@ -22435,7 +22435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>0</v>
       </c>
@@ -22494,7 +22494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>0</v>
       </c>
@@ -22592,7 +22592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>0</v>
       </c>
@@ -22651,7 +22651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>0</v>
       </c>
@@ -23036,7 +23036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>0</v>
       </c>
@@ -23699,7 +23699,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="299" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>0</v>
       </c>
@@ -23797,7 +23797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>0</v>
       </c>
@@ -23856,7 +23856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>0</v>
       </c>
@@ -23954,7 +23954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>0</v>
       </c>
@@ -24908,7 +24908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>0</v>
       </c>
@@ -25006,7 +25006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>0</v>
       </c>
@@ -25065,7 +25065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>0</v>
       </c>
@@ -25163,7 +25163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>0</v>
       </c>
@@ -25672,7 +25672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>0</v>
       </c>
@@ -25865,7 +25865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>0</v>
       </c>
@@ -26202,7 +26202,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="331" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>0</v>
       </c>
@@ -26300,7 +26300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>0</v>
       </c>
@@ -26359,7 +26359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>0</v>
       </c>
@@ -26783,7 +26783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>0</v>
       </c>
@@ -27145,7 +27145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>0</v>
       </c>
@@ -27407,7 +27407,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="347" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>0</v>
       </c>
@@ -27505,7 +27505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>0</v>
       </c>
@@ -27564,7 +27564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>0</v>
       </c>
@@ -27662,7 +27662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>0</v>
       </c>
@@ -28651,7 +28651,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="363" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>0</v>
       </c>
@@ -28710,7 +28710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>0</v>
       </c>
@@ -28769,7 +28769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>0</v>
       </c>
@@ -28828,7 +28828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>0</v>
       </c>
@@ -29229,7 +29229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>0</v>
       </c>
@@ -29630,7 +29630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>0</v>
       </c>
@@ -29967,7 +29967,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="379" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>0</v>
       </c>
@@ -30065,7 +30065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>0</v>
       </c>
@@ -30124,7 +30124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>0</v>
       </c>
@@ -30183,7 +30183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>0</v>
       </c>
@@ -30584,7 +30584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>0</v>
       </c>
@@ -30783,7 +30783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>0</v>
       </c>
@@ -31215,7 +31215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>0</v>
       </c>
@@ -31313,7 +31313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>0</v>
       </c>
@@ -31372,7 +31372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>0</v>
       </c>
@@ -31470,7 +31470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>0</v>
       </c>
@@ -32181,7 +32181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>0</v>
       </c>
@@ -32518,7 +32518,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="411" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>0</v>
       </c>
@@ -32577,7 +32577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>0</v>
       </c>
@@ -32636,7 +32636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>0</v>
       </c>
@@ -32734,7 +32734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>0</v>
       </c>
@@ -33096,7 +33096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>0</v>
       </c>
@@ -33497,7 +33497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>0</v>
       </c>
@@ -33772,7 +33772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>0</v>
       </c>
@@ -33870,7 +33870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>0</v>
       </c>
@@ -33929,7 +33929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>0</v>
       </c>
@@ -33988,7 +33988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>0</v>
       </c>
@@ -34086,7 +34086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>0</v>
       </c>
@@ -35036,7 +35036,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="443" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>0</v>
       </c>
@@ -35095,7 +35095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>0</v>
       </c>
@@ -35118,7 +35118,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="445" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>0</v>
       </c>
@@ -35627,7 +35627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>0</v>
       </c>
@@ -36082,7 +36082,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="459" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>0</v>
       </c>
@@ -36141,7 +36141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>0</v>
       </c>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>0</v>
       </c>
@@ -36217,7 +36217,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="462" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>0</v>
       </c>
@@ -37131,7 +37131,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="475" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>0</v>
       </c>
@@ -37190,7 +37190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>0</v>
       </c>
@@ -37213,7 +37213,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="477" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>0</v>
       </c>
@@ -38130,7 +38130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>0</v>
       </c>
@@ -38189,7 +38189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>0</v>
       </c>
@@ -38212,7 +38212,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="492" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>0</v>
       </c>
@@ -38235,7 +38235,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="493" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>0</v>
       </c>
@@ -38294,7 +38294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>0</v>
       </c>
@@ -38620,7 +38620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>0</v>
       </c>
@@ -38946,7 +38946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>0</v>
       </c>
@@ -39270,7 +39270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>0</v>
       </c>
@@ -39293,7 +39293,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="509" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>0</v>
       </c>
@@ -39639,7 +39639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>0</v>
       </c>
@@ -39995,7 +39995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>0</v>
       </c>
@@ -40234,7 +40234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="522" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>0</v>
       </c>
@@ -40257,7 +40257,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="523" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>0</v>
       </c>
@@ -40316,7 +40316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>0</v>
       </c>
@@ -40339,7 +40339,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="525" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>0</v>
       </c>
@@ -40362,7 +40362,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="526" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>0</v>
       </c>
@@ -41014,7 +41014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>0</v>
       </c>
@@ -41289,7 +41289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="538" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>0</v>
       </c>
@@ -41312,7 +41312,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="539" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>0</v>
       </c>
@@ -41391,7 +41391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>0</v>
       </c>
@@ -41776,7 +41776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>0</v>
       </c>
@@ -42364,7 +42364,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="555" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>0</v>
       </c>
@@ -42446,7 +42446,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="557" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>0</v>
       </c>
@@ -42469,7 +42469,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="558" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>0</v>
       </c>
@@ -42795,7 +42795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>0</v>
       </c>
@@ -43121,7 +43121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>0</v>
       </c>
@@ -43396,7 +43396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>0</v>
       </c>
@@ -43475,7 +43475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>0</v>
       </c>
@@ -43498,7 +43498,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="573" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>0</v>
       </c>
@@ -43847,7 +43847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>0</v>
       </c>
@@ -44471,7 +44471,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="587" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>0</v>
       </c>
@@ -44494,7 +44494,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="588" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>0</v>
       </c>
@@ -44517,7 +44517,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="589" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>0</v>
       </c>
@@ -45496,7 +45496,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="603" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>0</v>
       </c>
@@ -45519,7 +45519,7 @@
         <v>0.81</v>
       </c>
     </row>
-    <row r="604" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>0</v>
       </c>
@@ -45578,7 +45578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>0</v>
       </c>
@@ -46521,7 +46521,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="619" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>0</v>
       </c>
@@ -46544,7 +46544,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="620" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>0</v>
       </c>
@@ -46603,7 +46603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="621" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>0</v>
       </c>
@@ -47549,7 +47549,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="635" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>0</v>
       </c>
@@ -47608,7 +47608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>0</v>
       </c>
@@ -47631,7 +47631,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="637" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>0</v>
       </c>
@@ -47690,7 +47690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>0</v>
       </c>
@@ -48019,7 +48019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="642" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>0</v>
       </c>
@@ -48616,7 +48616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="651" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>0</v>
       </c>
@@ -48639,7 +48639,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="652" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>0</v>
       </c>
@@ -48698,7 +48698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="653" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>0</v>
       </c>
@@ -49626,13 +49626,10 @@
         <v>0</v>
       </c>
       <c r="B666" t="s">
-        <v>63</v>
-      </c>
-      <c r="D666">
-        <v>0.5</v>
-      </c>
-      <c r="E666">
-        <v>0.8</v>
+        <v>61</v>
+      </c>
+      <c r="C666">
+        <v>0.5</v>
       </c>
       <c r="F666">
         <v>0.5</v>
@@ -49644,10 +49641,10 @@
         <v>67</v>
       </c>
       <c r="BI666">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="667" spans="1:61" x14ac:dyDescent="0.25">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="667" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>0</v>
       </c>
@@ -49670,7 +49667,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="668" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>0</v>
       </c>
@@ -49693,7 +49690,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="669" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>0</v>
       </c>
@@ -50678,7 +50675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="683" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>0</v>
       </c>
@@ -50701,7 +50698,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="684" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>0</v>
       </c>
@@ -50724,7 +50721,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="685" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>0</v>
       </c>
@@ -51673,7 +51670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>0</v>
       </c>
@@ -51732,7 +51729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="700" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>0</v>
       </c>
@@ -51755,7 +51752,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="701" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>0</v>
       </c>
@@ -52740,7 +52737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>0</v>
       </c>
@@ -52763,7 +52760,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="716" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>0</v>
       </c>
@@ -52786,7 +52783,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="717" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>0</v>
       </c>
@@ -53735,7 +53732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>0</v>
       </c>
@@ -53758,7 +53755,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="732" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>0</v>
       </c>
@@ -53817,7 +53814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="733" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>0</v>
       </c>
@@ -54766,7 +54763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>0</v>
       </c>
@@ -54825,7 +54822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>0</v>
       </c>
@@ -54884,7 +54881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>0</v>
       </c>
@@ -55833,7 +55830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>0</v>
       </c>
@@ -55892,7 +55889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>0</v>
       </c>
@@ -55915,7 +55912,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="765" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>0</v>
       </c>
@@ -56900,7 +56897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>0</v>
       </c>
@@ -56923,7 +56920,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="780" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>0</v>
       </c>
@@ -56946,7 +56943,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="781" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>0</v>
       </c>
@@ -57895,7 +57892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>0</v>
       </c>
@@ -57954,7 +57951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>0</v>
       </c>
@@ -57977,7 +57974,7 @@
         <v>0.86</v>
       </c>
     </row>
-    <row r="797" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>0</v>
       </c>
@@ -58926,7 +58923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>0</v>
       </c>
@@ -58949,7 +58946,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="812" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
         <v>0</v>
       </c>
@@ -59008,7 +59005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="813" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
         <v>0</v>
       </c>
@@ -59957,7 +59954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="827" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
         <v>0</v>
       </c>
@@ -59980,15 +59977,18 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="828" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
         <v>0</v>
       </c>
       <c r="B828" t="s">
-        <v>61</v>
-      </c>
-      <c r="C828">
-        <v>0.5</v>
+        <v>63</v>
+      </c>
+      <c r="D828">
+        <v>0.5</v>
+      </c>
+      <c r="E828">
+        <v>0.8</v>
       </c>
       <c r="F828">
         <v>0.5</v>
@@ -60000,10 +60000,10 @@
         <v>67</v>
       </c>
       <c r="BI828">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="829" spans="1:61" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="829" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>0</v>
       </c>
@@ -60988,7 +60988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
         <v>0</v>
       </c>
@@ -61011,7 +61011,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="844" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
         <v>0</v>
       </c>
@@ -61070,7 +61070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
         <v>0</v>
       </c>
@@ -62019,7 +62019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
         <v>0</v>
       </c>
@@ -62042,7 +62042,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="860" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
         <v>0</v>
       </c>
@@ -62065,7 +62065,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="861" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
         <v>0</v>
       </c>
@@ -63014,7 +63014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="875" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
         <v>0</v>
       </c>
@@ -63073,7 +63073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
         <v>0</v>
       </c>
@@ -63096,7 +63096,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="877" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
         <v>0</v>
       </c>
@@ -64081,7 +64081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A891" s="1">
         <v>0</v>
       </c>
@@ -64140,7 +64140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="892" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A892" s="1">
         <v>0</v>
       </c>
@@ -64199,7 +64199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A893" s="1">
         <v>0</v>
       </c>
@@ -65184,7 +65184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="907" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A907" s="1">
         <v>0</v>
       </c>
@@ -65243,7 +65243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="908" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A908" s="1">
         <v>0</v>
       </c>
@@ -65302,7 +65302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A909" s="1">
         <v>0</v>
       </c>
@@ -66287,7 +66287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A923" s="1">
         <v>0</v>
       </c>
@@ -66346,7 +66346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="924" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A924" s="1">
         <v>0</v>
       </c>
@@ -66405,7 +66405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="925" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A925" s="1">
         <v>0</v>
       </c>
@@ -67390,7 +67390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="939" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A939" s="1">
         <v>0</v>
       </c>
@@ -67449,7 +67449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="940" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A940" s="1">
         <v>0</v>
       </c>
@@ -67508,7 +67508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A941" s="1">
         <v>0</v>
       </c>
@@ -68493,7 +68493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A955" s="1">
         <v>0</v>
       </c>
@@ -68552,7 +68552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="956" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A956" s="1">
         <v>0</v>
       </c>
@@ -68611,7 +68611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A957" s="1">
         <v>0</v>
       </c>
@@ -69596,7 +69596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="971" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A971" s="1">
         <v>0</v>
       </c>
@@ -69655,7 +69655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="972" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A972" s="1">
         <v>0</v>
       </c>
@@ -69714,7 +69714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="973" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A973" s="1">
         <v>0</v>
       </c>
@@ -70699,7 +70699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A987" s="1">
         <v>0</v>
       </c>
@@ -70758,7 +70758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A988" s="1">
         <v>0</v>
       </c>
@@ -70817,7 +70817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="989" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A989" s="1">
         <v>0</v>
       </c>
@@ -71802,7 +71802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1003" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1003" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="1">
         <v>0</v>
       </c>
@@ -71861,7 +71861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1004" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1004" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="1">
         <v>0</v>
       </c>
@@ -71920,7 +71920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1005" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1005" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="1">
         <v>0</v>
       </c>
@@ -72905,7 +72905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1019" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1019" s="1">
         <v>0</v>
       </c>
@@ -72964,7 +72964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1020" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1020" s="1">
         <v>0</v>
       </c>
@@ -73023,7 +73023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1021" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:61" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1021" s="1">
         <v>0</v>
       </c>
@@ -73768,12 +73768,37 @@
     </row>
   </sheetData>
   <autoFilter ref="A6:BI1030" xr:uid="{33C440B7-C61A-4FD9-B1D8-F97B1089416D}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="success_rewarded"/>
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="0,5"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A320:BI571">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="0,5"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="0,8"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="0,5"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="5"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="everything"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A478:BI828">
       <sortCondition ref="B6:B1030"/>
     </sortState>
   </autoFilter>
